--- a/Clean-500.xlsx
+++ b/Clean-500.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,10 +405,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.613884429672453E-08</v>
+        <v>2.627177336146216E-07</v>
       </c>
       <c r="D2">
-        <v>3.789476640075211E-06</v>
+        <v>1.505261733936005E-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -419,10 +419,10 @@
         <v>0.009999999776482582</v>
       </c>
       <c r="C3">
-        <v>5.397793012688132E-08</v>
+        <v>2.153546966718857E-07</v>
       </c>
       <c r="D3">
-        <v>3.092707583122356E-06</v>
+        <v>1.233891521761908E-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -433,10 +433,10 @@
         <v>0.01999999955296516</v>
       </c>
       <c r="C4">
-        <v>4.234634187346871E-08</v>
+        <v>1.698761327512599E-07</v>
       </c>
       <c r="D4">
-        <v>2.426266667167869E-06</v>
+        <v>9.733185446651287E-06</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -447,10 +447,10 @@
         <v>0.0350000001490116</v>
       </c>
       <c r="C5">
-        <v>2.588976021690751E-08</v>
+        <v>1.052276261477754E-07</v>
       </c>
       <c r="D5">
-        <v>1.483373993034503E-06</v>
+        <v>6.029098866447995E-06</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -461,10 +461,10 @@
         <v>0.05750000104308128</v>
       </c>
       <c r="C6">
-        <v>3.427692783207232E-09</v>
+        <v>1.636392100366453E-08</v>
       </c>
       <c r="D6">
-        <v>1.96392329945225E-07</v>
+        <v>9.375836097954599E-07</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -475,10 +475,10 @@
         <v>0.09125000238418579</v>
       </c>
       <c r="C7">
-        <v>-2.527046346520966E-08</v>
+        <v>-9.828335734743095E-08</v>
       </c>
       <c r="D7">
-        <v>-1.447890902896055E-06</v>
+        <v>-5.631221572383883E-06</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -489,10 +489,10 @@
         <v>0.1412499994039536</v>
       </c>
       <c r="C8">
-        <v>-5.675000913713999E-08</v>
+        <v>-2.258728304924172E-07</v>
       </c>
       <c r="D8">
-        <v>-3.25153601088698E-06</v>
+        <v>-1.294155989388936E-05</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -503,10 +503,10 @@
         <v>0.1912499964237213</v>
       </c>
       <c r="C9">
-        <v>-7.497276003604167E-08</v>
+        <v>-3.010754088154455E-07</v>
       </c>
       <c r="D9">
-        <v>-4.295622728512273E-06</v>
+        <v>-1.725035024030089E-05</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -517,10 +517,10 @@
         <v>0.2412499934434891</v>
       </c>
       <c r="C10">
-        <v>-7.961857402682287E-08</v>
+        <v>-3.216792012017498E-07</v>
       </c>
       <c r="D10">
-        <v>-4.561808262586866E-06</v>
+        <v>-1.84308605859999E-05</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -531,10 +531,10 @@
         <v>0.2912499904632568</v>
       </c>
       <c r="C11">
-        <v>-7.030910131357315E-08</v>
+        <v>-2.852394858925307E-07</v>
       </c>
       <c r="D11">
-        <v>-4.028414766625454E-06</v>
+        <v>-1.63430186921234E-05</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -545,10 +545,10 @@
         <v>0.3412500023841857</v>
       </c>
       <c r="C12">
-        <v>-4.643466152109673E-08</v>
+        <v>-1.890127897408861E-07</v>
       </c>
       <c r="D12">
-        <v>-2.660510128277366E-06</v>
+        <v>-1.08296351261464E-05</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -559,10 +559,10 @@
         <v>0.3912500143051147</v>
       </c>
       <c r="C13">
-        <v>-7.309814569291841E-09</v>
+        <v>-3.038748108957073E-08</v>
       </c>
       <c r="D13">
-        <v>-4.188215238436621E-07</v>
+        <v>-1.741074416466003E-06</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -573,10 +573,10 @@
         <v>0.4412499964237213</v>
       </c>
       <c r="C14">
-        <v>4.805796990589063E-08</v>
+        <v>1.937642275806357E-07</v>
       </c>
       <c r="D14">
-        <v>2.753518847574255E-06</v>
+        <v>1.110187246098281E-05</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -587,10 +587,10 @@
         <v>0.4912500083446503</v>
       </c>
       <c r="C15">
-        <v>1.208268448658965E-07</v>
+        <v>4.882462168042008E-07</v>
       </c>
       <c r="D15">
-        <v>6.92286826269781E-06</v>
+        <v>2.797444758611008E-05</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -601,10 +601,10 @@
         <v>0.5412499904632568</v>
       </c>
       <c r="C16">
-        <v>2.123415867683423E-07</v>
+        <v>8.525619729538199E-07</v>
       </c>
       <c r="D16">
-        <v>1.216627673693698E-05</v>
+        <v>4.884820282360052E-05</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -615,10 +615,10 @@
         <v>0.5912500023841858</v>
       </c>
       <c r="C17">
-        <v>3.255065784020777E-07</v>
+        <v>1.325741481181513E-06</v>
       </c>
       <c r="D17">
-        <v>1.865015314618329E-05</v>
+        <v>7.595939159712316E-05</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -629,10 +629,10 @@
         <v>0.6037499904632568</v>
       </c>
       <c r="C18">
-        <v>4.206653768491038E-07</v>
+        <v>1.814986068155236E-06</v>
       </c>
       <c r="D18">
-        <v>2.410235068073393E-05</v>
+        <v>0.0001039910415803386</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -643,10 +643,10 @@
         <v>0.6162499785423279</v>
       </c>
       <c r="C19">
-        <v>5.256612699905058E-07</v>
+        <v>2.361041332180503E-06</v>
       </c>
       <c r="D19">
-        <v>3.011817222394286E-05</v>
+        <v>0.0001352777035898883</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -657,10 +657,10 @@
         <v>0.6349999904632568</v>
       </c>
       <c r="C20">
-        <v>6.974711941588017E-07</v>
+        <v>3.26139754902241E-06</v>
       </c>
       <c r="D20">
-        <v>3.996215575724894E-05</v>
+        <v>0.0001868643148732951</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -671,10 +671,164 @@
         <v>0.6631249785423279</v>
       </c>
       <c r="C21">
-        <v>9.873488131946192E-07</v>
+        <v>4.792942273558649E-06</v>
       </c>
       <c r="D21">
-        <v>5.657091990330241E-05</v>
+        <v>0.0002746153637247479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.7053124904632568</v>
+      </c>
+      <c r="C22">
+        <v>7.498892566143271E-06</v>
+      </c>
+      <c r="D22">
+        <v>0.000429654895062037</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.7553125023841859</v>
+      </c>
+      <c r="C23">
+        <v>1.132948995585933E-05</v>
+      </c>
+      <c r="D23">
+        <v>0.000649131958506597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.8053125143051147</v>
+      </c>
+      <c r="C24">
+        <v>1.582737997028738E-05</v>
+      </c>
+      <c r="D24">
+        <v>0.0009068420730473612</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.8553125262260437</v>
+      </c>
+      <c r="C25">
+        <v>2.099069996427862E-05</v>
+      </c>
+      <c r="D25">
+        <v>0.001202678516978573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.905312478542328</v>
+      </c>
+      <c r="C26">
+        <v>2.681522813390794E-05</v>
+      </c>
+      <c r="D26">
+        <v>0.001536399398753392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.9178125262260435</v>
+      </c>
+      <c r="C27">
+        <v>2.837459321145246E-05</v>
+      </c>
+      <c r="D27">
+        <v>0.001625744436416783</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.936562478542328</v>
+      </c>
+      <c r="C28">
+        <v>3.078855059035143E-05</v>
+      </c>
+      <c r="D28">
+        <v>0.001764054006152156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.9646875262260435</v>
+      </c>
+      <c r="C29">
+        <v>3.457811774937921E-05</v>
+      </c>
+      <c r="D29">
+        <v>0.001981180210545829</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.9752343893051149</v>
+      </c>
+      <c r="C30">
+        <v>1.346880890573231E-05</v>
+      </c>
+      <c r="D30">
+        <v>0.0007717059053666782</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.9910547137260435</v>
+      </c>
+      <c r="C31">
+        <v>-1.807511473676891E-05</v>
+      </c>
+      <c r="D31">
+        <v>-0.001035627788631576</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1.014785170555115</v>
+      </c>
+      <c r="C32">
+        <v>-6.511033828576242E-05</v>
+      </c>
+      <c r="D32">
+        <v>-0.003730547586443246</v>
       </c>
     </row>
   </sheetData>
